--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF754AF-18C4-A948-A8A9-2F7FD5B8F9EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67CF45-1B7F-E14C-979C-88B5DD0C4FDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-19440" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
+    <workbookView xWindow="1800" yWindow="1880" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="2" r:id="rId1"/>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67CF45-1B7F-E14C-979C-88B5DD0C4FDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DE88F5-12AB-8842-ABF4-0703A93403F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1880" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
+    <workbookView xWindow="2240" yWindow="-19800" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="2" r:id="rId1"/>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DE88F5-12AB-8842-ABF4-0703A93403F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E025ED-4ED2-5841-BE3A-3DA8B0130397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="-19800" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>hostname</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Darwin</t>
+  </si>
+  <si>
+    <t>LookingGlass</t>
+  </si>
+  <si>
+    <t>/Users/fmdec/Box/Github/Research/</t>
+  </si>
+  <si>
+    <t>fmdec</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C96B5B-A5A2-F54C-8244-37FD8A60420A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,6 +469,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E025ED-4ED2-5841-BE3A-3DA8B0130397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60506994-2C3E-2143-9E61-BB57DDC2DD64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="-19800" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
+    <workbookView xWindow="-1560" yWindow="-19600" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="2" r:id="rId1"/>
@@ -54,13 +54,13 @@
     <t>Darwin</t>
   </si>
   <si>
-    <t>LookingGlass</t>
-  </si>
-  <si>
     <t>/Users/fmdec/Box/Github/Research/</t>
   </si>
   <si>
     <t>fmdec</t>
+  </si>
+  <si>
+    <t>LOOKINGGLASS</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,13 +471,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60506994-2C3E-2143-9E61-BB57DDC2DD64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82158C85-556D-484B-9C9B-897B0AE98667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1560" yWindow="-19600" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>hostname</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>LOOKINGGLASS</t>
+  </si>
+  <si>
+    <t>amyzhang</t>
+  </si>
+  <si>
+    <t>/Users/amyzhang/Box/Github/Research/</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C96B5B-A5A2-F54C-8244-37FD8A60420A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +486,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82158C85-556D-484B-9C9B-897B0AE98667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BB29E-5F75-3442-8F22-74E1677DE747}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1560" yWindow="-19600" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>hostname</t>
   </si>
@@ -67,19 +67,28 @@
   </si>
   <si>
     <t>/Users/amyzhang/Box/Github/Research/</t>
+  </si>
+  <si>
+    <t>PPRC-A34549</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C96B5B-A5A2-F54C-8244-37FD8A60420A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,24 +486,35 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BB29E-5F75-3442-8F22-74E1677DE747}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10324E4-DFAE-C54D-BFE5-4614926A25D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1560" yWindow="-19600" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>jcheadle2</t>
   </si>
   <si>
-    <t>SOC-BigDaddy</t>
-  </si>
-  <si>
     <t>working</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>PPRC-A34549</t>
+  </si>
+  <si>
+    <t>SOC-BIGDADDY</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -460,62 +460,62 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/lhd_dir.xlsx
+++ b/Data/lhd_dir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcheadle2/Box/GitHub/Software/R/RLifeHD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10324E4-DFAE-C54D-BFE5-4614926A25D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DE0ED4-C2F1-2749-9E0C-DC76ADDB6499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1560" yWindow="-19600" windowWidth="28040" windowHeight="17440" xr2:uid="{1F93C3D2-1ECF-5B4C-B148-58E25BF9C04C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>hostname</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>SOC-BIGDADDY</t>
+  </si>
+  <si>
+    <t>SOCL-A34549</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C96B5B-A5A2-F54C-8244-37FD8A60420A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,6 +521,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
